--- a/simulacion_AMZN.xlsx
+++ b/simulacion_AMZN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>222.3699951171875</v>
+      </c>
+      <c r="C2" t="n">
         <v>222.8899993896484</v>
       </c>
-      <c r="C2" t="n">
-        <v>182.1268529948248</v>
-      </c>
       <c r="D2" t="n">
-        <v>179.747900016393</v>
+        <v>220.414228649649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>222.3999938964844</v>
+      </c>
+      <c r="C3" t="n">
         <v>222.3699951171875</v>
       </c>
-      <c r="C3" t="n">
-        <v>225.4623275831869</v>
-      </c>
       <c r="D3" t="n">
-        <v>220.7217997902371</v>
+        <v>218.5475256756957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>222.6132965087891</v>
+      </c>
+      <c r="C4" t="n">
         <v>222.3999938964844</v>
       </c>
-      <c r="C4" t="n">
-        <v>225.7842960558114</v>
-      </c>
       <c r="D4" t="n">
-        <v>222.12938515975</v>
+        <v>228.1466958188372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>222.4100036621094</v>
+      </c>
+      <c r="C5" t="n">
         <v>222.6132965087891</v>
       </c>
-      <c r="C5" t="n">
-        <v>223.316826752352</v>
-      </c>
       <c r="D5" t="n">
-        <v>214.6596218711152</v>
+        <v>219.1970015261506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>222.5807037353516</v>
+      </c>
+      <c r="C6" t="n">
         <v>222.4100036621094</v>
       </c>
-      <c r="C6" t="n">
-        <v>222.1819534266145</v>
-      </c>
       <c r="D6" t="n">
-        <v>230.5808535632782</v>
+        <v>224.4246889943144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>222.4700012207031</v>
+      </c>
+      <c r="C7" t="n">
         <v>222.5807037353516</v>
       </c>
-      <c r="C7" t="n">
-        <v>221.7978338312588</v>
-      </c>
       <c r="D7" t="n">
-        <v>218.4674857145944</v>
+        <v>226.5496740171144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>220.2599945068359</v>
+      </c>
+      <c r="C8" t="n">
         <v>222.4700012207031</v>
       </c>
-      <c r="C8" t="n">
-        <v>217.9736348103247</v>
-      </c>
       <c r="D8" t="n">
-        <v>219.8892228200112</v>
+        <v>221.1789382914801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>221.6347045898438</v>
+      </c>
+      <c r="C9" t="n">
         <v>220.2599945068359</v>
       </c>
-      <c r="C9" t="n">
-        <v>220.3925337075429</v>
-      </c>
       <c r="D9" t="n">
-        <v>224.9117400194159</v>
+        <v>220.6714637324821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>222.0850067138672</v>
+      </c>
+      <c r="C10" t="n">
         <v>221.6347045898438</v>
       </c>
-      <c r="C10" t="n">
-        <v>220.2507212722521</v>
-      </c>
       <c r="D10" t="n">
-        <v>228.6334975267564</v>
+        <v>225.8243371186124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>222.2899932861328</v>
+      </c>
+      <c r="C11" t="n">
         <v>222.0850067138672</v>
       </c>
-      <c r="C11" t="n">
-        <v>221.3067130754811</v>
-      </c>
       <c r="D11" t="n">
-        <v>217.8537961657862</v>
+        <v>226.4673486776794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>222.6000061035156</v>
+      </c>
+      <c r="C12" t="n">
         <v>222.2899932861328</v>
       </c>
-      <c r="C12" t="n">
-        <v>220.9579880631469</v>
-      </c>
       <c r="D12" t="n">
-        <v>225.8707537619172</v>
+        <v>226.5373763328199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>222.0599975585938</v>
+      </c>
+      <c r="C13" t="n">
         <v>222.6000061035156</v>
       </c>
-      <c r="C13" t="n">
-        <v>218.896559819095</v>
-      </c>
       <c r="D13" t="n">
-        <v>229.2572338080598</v>
+        <v>221.6177267275935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>222.2799987792969</v>
+      </c>
+      <c r="C14" t="n">
         <v>222.0599975585938</v>
       </c>
-      <c r="C14" t="n">
-        <v>224.3806013997662</v>
-      </c>
       <c r="D14" t="n">
-        <v>227.0036880801458</v>
+        <v>229.6165557793527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>224.3755950927734</v>
+      </c>
+      <c r="C15" t="n">
         <v>222.2799987792969</v>
       </c>
-      <c r="C15" t="n">
-        <v>218.1459191875913</v>
-      </c>
       <c r="D15" t="n">
-        <v>222.450411593975</v>
+        <v>220.8687229025682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>224.5299987792969</v>
+      </c>
+      <c r="C16" t="n">
         <v>224.3755950927734</v>
       </c>
-      <c r="C16" t="n">
-        <v>220.8562376707659</v>
-      </c>
       <c r="D16" t="n">
-        <v>223.5233510610298</v>
+        <v>215.9071247420279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>225.2601013183594</v>
+      </c>
+      <c r="C17" t="n">
         <v>224.5299987792969</v>
       </c>
-      <c r="C17" t="n">
-        <v>225.1190760796777</v>
-      </c>
       <c r="D17" t="n">
-        <v>226.5845528948051</v>
+        <v>220.7812943618412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>225.5800018310547</v>
+      </c>
+      <c r="C18" t="n">
         <v>225.2601013183594</v>
       </c>
-      <c r="C18" t="n">
-        <v>224.1307800995485</v>
-      </c>
       <c r="D18" t="n">
-        <v>228.3118062229281</v>
+        <v>218.7576481689501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="C19" t="n">
         <v>225.5800018310547</v>
       </c>
-      <c r="C19" t="n">
-        <v>225.0168240564949</v>
-      </c>
       <c r="D19" t="n">
-        <v>228.1363641138681</v>
+        <v>225.9436109821324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>225.7899932861328</v>
+      </c>
+      <c r="C20" t="n">
         <v>226.1000061035156</v>
       </c>
-      <c r="C20" t="n">
-        <v>228.1805640026679</v>
-      </c>
       <c r="D20" t="n">
-        <v>226.1521001190411</v>
+        <v>230.3625239802085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>224.9900054931641</v>
+      </c>
+      <c r="C21" t="n">
         <v>225.7899932861328</v>
       </c>
-      <c r="C21" t="n">
-        <v>221.0402480490651</v>
-      </c>
       <c r="D21" t="n">
-        <v>226.9101473665546</v>
+        <v>223.5342941934025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>225.3056030273438</v>
+      </c>
+      <c r="C22" t="n">
         <v>224.9900054931641</v>
       </c>
-      <c r="C22" t="n">
-        <v>224.767110147288</v>
-      </c>
       <c r="D22" t="n">
-        <v>222.7989190857716</v>
+        <v>220.1100481040905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>225.8800048828125</v>
+      </c>
+      <c r="C23" t="n">
         <v>225.3056030273438</v>
       </c>
-      <c r="C23" t="n">
-        <v>228.5711966226464</v>
-      </c>
       <c r="D23" t="n">
-        <v>229.049312712585</v>
+        <v>225.8716682267265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>225.9949951171875</v>
+      </c>
+      <c r="C24" t="n">
         <v>225.8800048828125</v>
       </c>
-      <c r="C24" t="n">
-        <v>229.1905592930377</v>
-      </c>
       <c r="D24" t="n">
-        <v>222.9007841981493</v>
+        <v>230.8914095450136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>225.7550048828125</v>
+      </c>
+      <c r="C25" t="n">
         <v>225.9949951171875</v>
       </c>
-      <c r="C25" t="n">
-        <v>226.3444859657673</v>
-      </c>
       <c r="D25" t="n">
-        <v>234.9219148930606</v>
+        <v>222.8642131712212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>225.4499969482422</v>
+      </c>
+      <c r="C26" t="n">
         <v>225.7550048828125</v>
       </c>
-      <c r="C26" t="n">
-        <v>221.5077523010671</v>
-      </c>
       <c r="D26" t="n">
-        <v>227.1156255989746</v>
+        <v>224.6887210349146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>225.33349609375</v>
+      </c>
+      <c r="C27" t="n">
         <v>225.4499969482422</v>
       </c>
-      <c r="C27" t="n">
-        <v>224.8961019252451</v>
-      </c>
       <c r="D27" t="n">
-        <v>223.9686958353264</v>
+        <v>230.798391201034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>225.6300048828125</v>
+      </c>
+      <c r="C28" t="n">
         <v>225.33349609375</v>
       </c>
-      <c r="C28" t="n">
-        <v>229.1842807337573</v>
-      </c>
       <c r="D28" t="n">
-        <v>233.8102251534073</v>
+        <v>229.1735564823941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>226.8600006103516</v>
+      </c>
+      <c r="C29" t="n">
         <v>225.6300048828125</v>
       </c>
-      <c r="C29" t="n">
-        <v>229.8556481406981</v>
-      </c>
       <c r="D29" t="n">
-        <v>226.2188348943667</v>
+        <v>232.3837217361472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>226.6799926757812</v>
+      </c>
+      <c r="C30" t="n">
         <v>226.8600006103516</v>
       </c>
-      <c r="C30" t="n">
-        <v>228.6348782128801</v>
-      </c>
       <c r="D30" t="n">
-        <v>215.9338244723756</v>
+        <v>224.9499663317515</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>226.6000061035156</v>
+      </c>
+      <c r="C31" t="n">
         <v>226.6799926757812</v>
       </c>
-      <c r="C31" t="n">
-        <v>229.8212319919738</v>
-      </c>
       <c r="D31" t="n">
-        <v>228.2825489240734</v>
+        <v>220.0809253772704</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>225.9600067138672</v>
+      </c>
+      <c r="C32" t="n">
         <v>226.6000061035156</v>
       </c>
-      <c r="C32" t="n">
-        <v>225.9911013923171</v>
-      </c>
       <c r="D32" t="n">
-        <v>221.3762861067642</v>
+        <v>222.732034681477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>226.8350067138672</v>
+      </c>
+      <c r="C33" t="n">
         <v>225.9600067138672</v>
       </c>
-      <c r="C33" t="n">
-        <v>229.9010061802491</v>
-      </c>
       <c r="D33" t="n">
-        <v>226.1906373117444</v>
+        <v>222.067196652894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>226.2969970703125</v>
+      </c>
+      <c r="C34" t="n">
         <v>226.8350067138672</v>
       </c>
-      <c r="C34" t="n">
-        <v>228.7307837306739</v>
-      </c>
       <c r="D34" t="n">
-        <v>223.95407678615</v>
+        <v>226.5572781674514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>226.3000030517578</v>
+      </c>
+      <c r="C35" t="n">
         <v>226.2969970703125</v>
       </c>
-      <c r="C35" t="n">
-        <v>224.4755565671034</v>
-      </c>
       <c r="D35" t="n">
-        <v>218.4084778598979</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>226.3000030517578</v>
-      </c>
-      <c r="C36" t="n">
-        <v>232.21504109598</v>
-      </c>
-      <c r="D36" t="n">
-        <v>216.8608830014984</v>
+        <v>231.4081065986274</v>
       </c>
     </row>
   </sheetData>
